--- a/docs/Example reports and tables.xlsx
+++ b/docs/Example reports and tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\LINQ\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE33593-56D3-4B8F-9C8B-01CA8F992B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26FB54B-716B-4724-8574-730E3F74BBE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{78C707C5-FFDF-4E79-9C96-F5DB5E374042}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{78C707C5-FFDF-4E79-9C96-F5DB5E374042}"/>
   </bookViews>
   <sheets>
     <sheet name="Student report" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="209">
   <si>
     <t>Student Name</t>
   </si>
@@ -455,12 +455,6 @@
     <t>Student_lname</t>
   </si>
   <si>
-    <t>Guardian1_id</t>
-  </si>
-  <si>
-    <t>Guardian2_id</t>
-  </si>
-  <si>
     <t>Assignments</t>
   </si>
   <si>
@@ -482,12 +476,6 @@
     <t>Guardian1_lname</t>
   </si>
   <si>
-    <t>Guardian2_fname</t>
-  </si>
-  <si>
-    <t>Guardian2_lname</t>
-  </si>
-  <si>
     <t>Student_email</t>
   </si>
   <si>
@@ -497,38 +485,6 @@
     <t>LEGEND:</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">All </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> are primary keys</t>
-    </r>
-  </si>
-  <si>
-    <t>Guardian1_phone</t>
-  </si>
-  <si>
-    <t>Guardian2_phone</t>
-  </si>
-  <si>
     <t>Student_phone</t>
   </si>
   <si>
@@ -538,15 +494,9 @@
     <t>Bobby</t>
   </si>
   <si>
-    <t>Mavis</t>
-  </si>
-  <si>
     <t>NOT NULL</t>
   </si>
   <si>
-    <t>Set score NULL for absentees</t>
-  </si>
-  <si>
     <t>Math</t>
   </si>
   <si>
@@ -592,9 +542,6 @@
     <t>Jake</t>
   </si>
   <si>
-    <t>Bill</t>
-  </si>
-  <si>
     <t>Bob</t>
   </si>
   <si>
@@ -607,18 +554,9 @@
     <t>Harmony</t>
   </si>
   <si>
-    <t>Identifies who teaches who</t>
-  </si>
-  <si>
     <t>Identifies what subjects a student studies</t>
   </si>
   <si>
-    <t>Form_group_id</t>
-  </si>
-  <si>
-    <t>Form_group_id is varchar(5) allowing for non-numerical</t>
-  </si>
-  <si>
     <t>Lists students in a form (pastoral group)</t>
   </si>
   <si>
@@ -637,30 +575,15 @@
     <t>Max_raw_score</t>
   </si>
   <si>
-    <t>Students_teachers_id</t>
-  </si>
-  <si>
-    <t>Students_teachers</t>
-  </si>
-  <si>
     <t>Students_subjects</t>
   </si>
   <si>
-    <t>Students_subjects_id</t>
-  </si>
-  <si>
     <t>Student_assignments</t>
   </si>
   <si>
     <t>Form_groups</t>
   </si>
   <si>
-    <t>Teachers_subjects</t>
-  </si>
-  <si>
-    <t>Teachers_subjects_id</t>
-  </si>
-  <si>
     <t>Teachers_assignments</t>
   </si>
   <si>
@@ -671,9 +594,6 @@
   </si>
   <si>
     <t>Allows teachers to share assignments/tests etc. with thresholds</t>
-  </si>
-  <si>
-    <t>Address_id</t>
   </si>
   <si>
     <t>Letter_grade_thresholds</t>
@@ -806,12 +726,222 @@
       <t>" at present). However, new entries are not recognised and must be uploaded via LINQ-client</t>
     </r>
   </si>
+  <si>
+    <t>1st form:</t>
+  </si>
+  <si>
+    <t>2nd form:</t>
+  </si>
+  <si>
+    <t>3rd form:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ver 3.5" form (from the point of view of the primary column): avoid having primary key, inc. composite keys, columns dependent on non-primary based columns </t>
+  </si>
+  <si>
+    <t>4th form:</t>
+  </si>
+  <si>
+    <t>5th form (PJNF):</t>
+  </si>
+  <si>
+    <t>Normalised forms</t>
+  </si>
+  <si>
+    <t>Boyce-Codd NF form:</t>
+  </si>
+  <si>
+    <t>Key columns (with a primary key) and non-key columns</t>
+  </si>
+  <si>
+    <t>No partial dependency. Where two key columns make up a composite key, each non-key column should depend on both individual keys, not just one of them</t>
+  </si>
+  <si>
+    <t>No transitive dependency. No column should depend on one column which depends on the primary (non-key columns should not depend on other non-key columns). All columns should depend on the primary key only.</t>
+  </si>
+  <si>
+    <t>No multivalue dependencies. Tables should represent one distinct value type (one for addresses, one for students, one for courses etc.)</t>
+  </si>
+  <si>
+    <t>Table decomposition should not result in loss of info. when the decomposed tables are joined. If so, then avoid further table decomposition</t>
+  </si>
+  <si>
+    <t>Guardians_id</t>
+  </si>
+  <si>
+    <t>Guardian_fname</t>
+  </si>
+  <si>
+    <t>Guardian_lname</t>
+  </si>
+  <si>
+    <t>Guardian_phone</t>
+  </si>
+  <si>
+    <t>Primary Key PK</t>
+  </si>
+  <si>
+    <t>Use atomic values, and unique IDs. Avoid repeating columns</t>
+  </si>
+  <si>
+    <t>Student_middle_initials</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X P</t>
+  </si>
+  <si>
+    <t>Guardians1_id</t>
+  </si>
+  <si>
+    <t>Guardians2_id</t>
+  </si>
+  <si>
+    <t>Guardian1_address</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Guardians_id can only ever match student_id</t>
+  </si>
+  <si>
+    <t>Set raw score to NULL for absentees</t>
+  </si>
+  <si>
+    <t>List students in a subject class</t>
+  </si>
+  <si>
+    <t>Subject_groups</t>
+  </si>
+  <si>
+    <t>Can also use non-numeric Subject_groups_id</t>
+  </si>
+  <si>
+    <t>Subject_class_name</t>
+  </si>
+  <si>
+    <t>Identifies who teaches who; some teachers teach more than one subject type</t>
+  </si>
+  <si>
+    <t>Form_group_name</t>
+  </si>
+  <si>
+    <t>Subject_class_name may be graded per year group: ChemA, ChemB etc…</t>
+  </si>
+  <si>
+    <t>Formal title of each subject</t>
+  </si>
+  <si>
+    <t>Form group would include year group info</t>
+  </si>
+  <si>
+    <t>Rows would be listed by date (added automatically)</t>
+  </si>
+  <si>
+    <t>Assignment_entry_date</t>
+  </si>
+  <si>
+    <t>LINQ is set to display % by default, though this can be switched if needed</t>
+  </si>
+  <si>
+    <t>Academic_dates</t>
+  </si>
+  <si>
+    <t>Start_date_1</t>
+  </si>
+  <si>
+    <t>Start_date_2</t>
+  </si>
+  <si>
+    <t>Start_date_3</t>
+  </si>
+  <si>
+    <t>Teacher_comments</t>
+  </si>
+  <si>
+    <t>Comments_for_parents</t>
+  </si>
+  <si>
+    <t>Assignment_details</t>
+  </si>
+  <si>
+    <t>Group essay</t>
+  </si>
+  <si>
+    <t>Drills</t>
+  </si>
+  <si>
+    <t>Prep test</t>
+  </si>
+  <si>
+    <t>Add_to_average</t>
+  </si>
+  <si>
+    <t>Add_to_average instructs LINQ to add assignment to end-of-term analyses; default is TRUE</t>
+  </si>
+  <si>
+    <t>Student_report_comments</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Subject_teachers_groups</t>
+  </si>
+  <si>
+    <t>Subject_teachers_group_id</t>
+  </si>
+  <si>
+    <t>Year_group_number</t>
+  </si>
+  <si>
+    <t>The student's report will list the term/semester after comparing the submission date with the start dates from Academic_dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The submission of more comments replaces the current comments</t>
+  </si>
+  <si>
+    <t>Form_tutor_comments</t>
+  </si>
+  <si>
+    <t>Subject_report_sub_date</t>
+  </si>
+  <si>
+    <t>Form_report_sub_date</t>
+  </si>
+  <si>
+    <t>When to denormalise:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a table is updated infrequently; include columns with derived values when those values are searched frequently (processed data). </t>
+  </si>
+  <si>
+    <t>Columns for grade thresholds and grade characters are somewhat repeated here (they are related) to avoid future joins which might break the relations inaccurately</t>
+  </si>
+  <si>
+    <t>Guardians1 and 2 are listed in the same column to prevent potential mis-join issues</t>
+  </si>
+  <si>
+    <t>Guardian2_Address</t>
+  </si>
+  <si>
+    <t>Guardian1_email</t>
+  </si>
+  <si>
+    <t>Guardian2_email</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -864,15 +994,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -900,6 +1089,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,7 +1280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1115,17 +1316,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1173,18 +1366,148 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1236,6 +1559,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1259,13 +1585,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1309,13 +1635,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1359,13 +1685,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1409,13 +1735,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1459,13 +1785,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1507,16 +1833,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1530,13 +1856,18 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2266950" y="3448051"/>
-          <a:ext cx="9629775" cy="571499"/>
+        <a:xfrm flipH="1">
+          <a:off x="8210550" y="4295775"/>
+          <a:ext cx="1162051" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1557,16 +1888,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1580,13 +1911,18 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="9972675" y="3457576"/>
-          <a:ext cx="3219450" cy="561974"/>
+        <a:xfrm flipV="1">
+          <a:off x="8448675" y="4305300"/>
+          <a:ext cx="3838575" cy="638176"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1607,16 +1943,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1630,13 +1966,18 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13611225" y="4676775"/>
-          <a:ext cx="742950" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="15697200" y="6010275"/>
+          <a:ext cx="1495425" cy="47625"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1658,14 +1999,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1681,12 +2022,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14925676" y="5162550"/>
+          <a:off x="19383376" y="6496050"/>
           <a:ext cx="9524" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1708,15 +2054,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1730,13 +2076,18 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6429375" y="5162550"/>
-          <a:ext cx="1114425" cy="552450"/>
+        <a:xfrm flipH="1">
+          <a:off x="7829550" y="6115050"/>
+          <a:ext cx="371475" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1757,16 +2108,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1781,12 +2132,72 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4819651" y="6915150"/>
-          <a:ext cx="1104899" cy="1219200"/>
+          <a:off x="4514850" y="8248650"/>
+          <a:ext cx="2305051" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BCB51C1-1E6B-4CDC-B3D4-8218A5487065}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3228975" y="7858125"/>
+          <a:ext cx="1114425" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1808,35 +2219,40 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Connector 27">
+        <xdr:cNvPr id="32" name="Straight Connector 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BCB51C1-1E6B-4CDC-B3D4-8218A5487065}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73F11E37-4794-464D-9608-59429B4BCA48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2114550" y="5162550"/>
-          <a:ext cx="0" cy="571500"/>
+        <a:xfrm flipH="1">
+          <a:off x="2009775" y="9953625"/>
+          <a:ext cx="1362075" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1857,66 +2273,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Straight Connector 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73F11E37-4794-464D-9608-59429B4BCA48}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1971675" y="6896100"/>
-          <a:ext cx="1209675" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1931,12 +2297,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2314575" y="8610600"/>
-          <a:ext cx="8534400" cy="561975"/>
+          <a:off x="9344025" y="9953626"/>
+          <a:ext cx="1733550" cy="561974"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1958,15 +2329,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1981,12 +2352,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12687300" y="6905625"/>
-          <a:ext cx="2619375" cy="542925"/>
+          <a:off x="16935450" y="7848600"/>
+          <a:ext cx="1114425" cy="552451"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2007,16 +2383,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2030,13 +2406,18 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4810125" y="4657725"/>
-          <a:ext cx="1104900" cy="0"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5572125" y="5991225"/>
+          <a:ext cx="1238250" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2058,15 +2439,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2081,12 +2462,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6877050" y="5153025"/>
-          <a:ext cx="3705225" cy="695325"/>
+          <a:off x="8648700" y="6105525"/>
+          <a:ext cx="1895475" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2107,16 +2493,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1133476</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2131,12 +2517,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4848225" y="6438900"/>
-          <a:ext cx="6638925" cy="2733675"/>
+          <a:off x="8791576" y="7858125"/>
+          <a:ext cx="3952874" cy="2276475"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2157,15 +2548,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1362075</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2181,12 +2572,17 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="12982575" y="8610600"/>
-          <a:ext cx="6315075" cy="752475"/>
+          <a:off x="16240125" y="9944100"/>
+          <a:ext cx="4314825" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2209,13 +2605,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2237,6 +2633,11 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2257,16 +2658,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1019177</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2280,13 +2681,364 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="17497425" y="6905625"/>
-          <a:ext cx="4772025" cy="552450"/>
+        <a:xfrm>
+          <a:off x="22136100" y="7858125"/>
+          <a:ext cx="228602" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E713D4DB-8061-4774-B11F-069B516F8B07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14344651" y="4267200"/>
+          <a:ext cx="1362074" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Connector 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F703C74D-E094-48D9-AB82-DBCB3ABED767}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="8991600"/>
+          <a:ext cx="3705225" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Straight Connector 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82774AB7-6718-4753-943F-5E377C7A32B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10248900" y="10306050"/>
+          <a:ext cx="1133475" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF271935-CFC8-4807-BC7B-0E5FCC9616A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11668125" y="10267950"/>
+          <a:ext cx="1381125" cy="3324225"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1104901</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Connector 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D22923F6-5566-4FBE-A579-45D0BD7C7A6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11658601" y="7848600"/>
+          <a:ext cx="209549" cy="2409825"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1685927</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Connector 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{853F0B21-8F77-4213-98B8-50D02FDB6BDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3152777" y="6153150"/>
+          <a:ext cx="76198" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2608,7 +3360,7 @@
   <dimension ref="A1:AD50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2645,53 +3397,53 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
       <c r="J2" s="5"/>
       <c r="U2" s="5"/>
-      <c r="V2" s="62" t="s">
+      <c r="V2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="126"/>
       <c r="AD2" s="5"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
       <c r="J3" s="5"/>
       <c r="M3" t="s">
         <v>12</v>
       </c>
       <c r="U3" s="5"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="126"/>
       <c r="AD3" s="5"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -2718,31 +3470,31 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60"/>
+      <c r="H5" s="124"/>
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
       <c r="U5" s="5"/>
-      <c r="V5" s="60" t="s">
+      <c r="V5" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="W5" s="60"/>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="63"/>
+      <c r="W5" s="124"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
       <c r="Z5" s="6"/>
-      <c r="AA5" s="60" t="s">
+      <c r="AA5" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="AB5" s="60"/>
+      <c r="AB5" s="124"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="5"/>
     </row>
@@ -2770,29 +3522,29 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="124"/>
       <c r="I7" s="3"/>
       <c r="J7" s="5"/>
       <c r="U7" s="5"/>
-      <c r="V7" s="60" t="s">
+      <c r="V7" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="W7" s="60"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="63"/>
+      <c r="W7" s="124"/>
+      <c r="X7" s="127"/>
+      <c r="Y7" s="127"/>
       <c r="Z7" s="6"/>
-      <c r="AA7" s="60" t="s">
+      <c r="AA7" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="AB7" s="60"/>
+      <c r="AB7" s="124"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="5"/>
     </row>
@@ -2820,29 +3572,29 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="60"/>
+      <c r="H9" s="124"/>
       <c r="I9" s="3"/>
       <c r="J9" s="5"/>
       <c r="U9" s="5"/>
-      <c r="V9" s="60" t="s">
+      <c r="V9" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="W9" s="60"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="63"/>
+      <c r="W9" s="124"/>
+      <c r="X9" s="127"/>
+      <c r="Y9" s="127"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="60" t="s">
+      <c r="AA9" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="AB9" s="60"/>
+      <c r="AB9" s="124"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="5"/>
     </row>
@@ -2870,12 +3622,12 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="7"/>
       <c r="G11" s="13" t="s">
         <v>5</v>
@@ -2889,12 +3641,12 @@
         <v>13</v>
       </c>
       <c r="U11" s="5"/>
-      <c r="V11" s="61" t="s">
+      <c r="V11" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="61"/>
+      <c r="W11" s="125"/>
+      <c r="X11" s="125"/>
+      <c r="Y11" s="125"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="13" t="s">
         <v>5</v>
@@ -2907,486 +3659,486 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="57"/>
+      <c r="G12" s="121"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="57"/>
+      <c r="I12" s="121"/>
       <c r="J12" s="5"/>
       <c r="U12" s="5"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="121"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="57"/>
+      <c r="AA12" s="121"/>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="57"/>
+      <c r="AC12" s="121"/>
       <c r="AD12" s="5"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="57"/>
+      <c r="G13" s="121"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="57"/>
+      <c r="I13" s="121"/>
       <c r="J13" s="5"/>
       <c r="U13" s="5"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="121"/>
+      <c r="Y13" s="121"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="57"/>
+      <c r="AA13" s="121"/>
       <c r="AB13" s="5"/>
-      <c r="AC13" s="57"/>
+      <c r="AC13" s="121"/>
       <c r="AD13" s="5"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="57"/>
+      <c r="G14" s="121"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="57"/>
+      <c r="I14" s="121"/>
       <c r="J14" s="5"/>
       <c r="U14" s="5"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
+      <c r="V14" s="121"/>
+      <c r="W14" s="121"/>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="121"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="57"/>
+      <c r="AA14" s="121"/>
       <c r="AB14" s="5"/>
-      <c r="AC14" s="57"/>
+      <c r="AC14" s="121"/>
       <c r="AD14" s="5"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="57"/>
+      <c r="G15" s="121"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="57"/>
+      <c r="I15" s="121"/>
       <c r="J15" s="5"/>
       <c r="U15" s="5"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
+      <c r="V15" s="121"/>
+      <c r="W15" s="121"/>
+      <c r="X15" s="121"/>
+      <c r="Y15" s="121"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="57"/>
+      <c r="AA15" s="121"/>
       <c r="AB15" s="5"/>
-      <c r="AC15" s="57"/>
+      <c r="AC15" s="121"/>
       <c r="AD15" s="5"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="57"/>
+      <c r="G16" s="121"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="57"/>
+      <c r="I16" s="121"/>
       <c r="J16" s="5"/>
       <c r="U16" s="5"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
+      <c r="V16" s="121"/>
+      <c r="W16" s="121"/>
+      <c r="X16" s="121"/>
+      <c r="Y16" s="121"/>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="57"/>
+      <c r="AA16" s="121"/>
       <c r="AB16" s="5"/>
-      <c r="AC16" s="57"/>
+      <c r="AC16" s="121"/>
       <c r="AD16" s="5"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="57"/>
+      <c r="G17" s="121"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="57"/>
+      <c r="I17" s="121"/>
       <c r="J17" s="5"/>
       <c r="U17" s="5"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="57"/>
+      <c r="V17" s="121"/>
+      <c r="W17" s="121"/>
+      <c r="X17" s="121"/>
+      <c r="Y17" s="121"/>
       <c r="Z17" s="5"/>
-      <c r="AA17" s="57"/>
+      <c r="AA17" s="121"/>
       <c r="AB17" s="5"/>
-      <c r="AC17" s="57"/>
+      <c r="AC17" s="121"/>
       <c r="AD17" s="5"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="57"/>
+      <c r="G18" s="121"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="57"/>
+      <c r="I18" s="121"/>
       <c r="J18" s="5"/>
       <c r="U18" s="5"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
+      <c r="V18" s="121"/>
+      <c r="W18" s="121"/>
+      <c r="X18" s="121"/>
+      <c r="Y18" s="121"/>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="57"/>
+      <c r="AA18" s="121"/>
       <c r="AB18" s="5"/>
-      <c r="AC18" s="57"/>
+      <c r="AC18" s="121"/>
       <c r="AD18" s="5"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="57"/>
+      <c r="G19" s="121"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="57"/>
+      <c r="I19" s="121"/>
       <c r="J19" s="5"/>
       <c r="U19" s="5"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="57"/>
+      <c r="V19" s="121"/>
+      <c r="W19" s="121"/>
+      <c r="X19" s="121"/>
+      <c r="Y19" s="121"/>
       <c r="Z19" s="5"/>
-      <c r="AA19" s="57"/>
+      <c r="AA19" s="121"/>
       <c r="AB19" s="5"/>
-      <c r="AC19" s="57"/>
+      <c r="AC19" s="121"/>
       <c r="AD19" s="5"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="57"/>
+      <c r="G20" s="121"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="57"/>
+      <c r="I20" s="121"/>
       <c r="J20" s="5"/>
       <c r="U20" s="5"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
+      <c r="V20" s="121"/>
+      <c r="W20" s="121"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="121"/>
       <c r="Z20" s="5"/>
-      <c r="AA20" s="57"/>
+      <c r="AA20" s="121"/>
       <c r="AB20" s="5"/>
-      <c r="AC20" s="57"/>
+      <c r="AC20" s="121"/>
       <c r="AD20" s="5"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="57"/>
+      <c r="G21" s="121"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="57"/>
+      <c r="I21" s="121"/>
       <c r="J21" s="5"/>
       <c r="U21" s="5"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
+      <c r="V21" s="121"/>
+      <c r="W21" s="121"/>
+      <c r="X21" s="121"/>
+      <c r="Y21" s="121"/>
       <c r="Z21" s="5"/>
-      <c r="AA21" s="57"/>
+      <c r="AA21" s="121"/>
       <c r="AB21" s="5"/>
-      <c r="AC21" s="57"/>
+      <c r="AC21" s="121"/>
       <c r="AD21" s="5"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="57"/>
+      <c r="G22" s="121"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="57"/>
+      <c r="I22" s="121"/>
       <c r="J22" s="5"/>
       <c r="U22" s="5"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
+      <c r="V22" s="121"/>
+      <c r="W22" s="121"/>
+      <c r="X22" s="121"/>
+      <c r="Y22" s="121"/>
       <c r="Z22" s="5"/>
-      <c r="AA22" s="57"/>
+      <c r="AA22" s="121"/>
       <c r="AB22" s="5"/>
-      <c r="AC22" s="57"/>
+      <c r="AC22" s="121"/>
       <c r="AD22" s="5"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="57"/>
+      <c r="G23" s="121"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="57"/>
+      <c r="I23" s="121"/>
       <c r="J23" s="5"/>
       <c r="U23" s="5"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="57"/>
+      <c r="V23" s="121"/>
+      <c r="W23" s="121"/>
+      <c r="X23" s="121"/>
+      <c r="Y23" s="121"/>
       <c r="Z23" s="5"/>
-      <c r="AA23" s="57"/>
+      <c r="AA23" s="121"/>
       <c r="AB23" s="5"/>
-      <c r="AC23" s="57"/>
+      <c r="AC23" s="121"/>
       <c r="AD23" s="5"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="57"/>
+      <c r="G24" s="121"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="57"/>
+      <c r="I24" s="121"/>
       <c r="J24" s="5"/>
       <c r="U24" s="5"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
+      <c r="V24" s="121"/>
+      <c r="W24" s="121"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="121"/>
       <c r="Z24" s="5"/>
-      <c r="AA24" s="57"/>
+      <c r="AA24" s="121"/>
       <c r="AB24" s="5"/>
-      <c r="AC24" s="57"/>
+      <c r="AC24" s="121"/>
       <c r="AD24" s="5"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="57"/>
+      <c r="G25" s="121"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="57"/>
+      <c r="I25" s="121"/>
       <c r="J25" s="5"/>
       <c r="U25" s="5"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
+      <c r="V25" s="121"/>
+      <c r="W25" s="121"/>
+      <c r="X25" s="121"/>
+      <c r="Y25" s="121"/>
       <c r="Z25" s="5"/>
-      <c r="AA25" s="57"/>
+      <c r="AA25" s="121"/>
       <c r="AB25" s="5"/>
-      <c r="AC25" s="57"/>
+      <c r="AC25" s="121"/>
       <c r="AD25" s="5"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="57"/>
+      <c r="G26" s="121"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="57"/>
+      <c r="I26" s="121"/>
       <c r="J26" s="5"/>
       <c r="U26" s="5"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
+      <c r="V26" s="121"/>
+      <c r="W26" s="121"/>
+      <c r="X26" s="121"/>
+      <c r="Y26" s="121"/>
       <c r="Z26" s="5"/>
-      <c r="AA26" s="57"/>
+      <c r="AA26" s="121"/>
       <c r="AB26" s="5"/>
-      <c r="AC26" s="57"/>
+      <c r="AC26" s="121"/>
       <c r="AD26" s="5"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="57"/>
+      <c r="G27" s="121"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="57"/>
+      <c r="I27" s="121"/>
       <c r="J27" s="5"/>
       <c r="U27" s="5"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
+      <c r="V27" s="121"/>
+      <c r="W27" s="121"/>
+      <c r="X27" s="121"/>
+      <c r="Y27" s="121"/>
       <c r="Z27" s="5"/>
-      <c r="AA27" s="57"/>
+      <c r="AA27" s="121"/>
       <c r="AB27" s="5"/>
-      <c r="AC27" s="57"/>
+      <c r="AC27" s="121"/>
       <c r="AD27" s="5"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="57"/>
+      <c r="G28" s="121"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="57"/>
+      <c r="I28" s="121"/>
       <c r="J28" s="5"/>
       <c r="U28" s="5"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
+      <c r="V28" s="121"/>
+      <c r="W28" s="121"/>
+      <c r="X28" s="121"/>
+      <c r="Y28" s="121"/>
       <c r="Z28" s="5"/>
-      <c r="AA28" s="57"/>
+      <c r="AA28" s="121"/>
       <c r="AB28" s="5"/>
-      <c r="AC28" s="57"/>
+      <c r="AC28" s="121"/>
       <c r="AD28" s="5"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="57"/>
+      <c r="G29" s="121"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="57"/>
+      <c r="I29" s="121"/>
       <c r="J29" s="5"/>
       <c r="U29" s="5"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
-      <c r="Y29" s="57"/>
+      <c r="V29" s="121"/>
+      <c r="W29" s="121"/>
+      <c r="X29" s="121"/>
+      <c r="Y29" s="121"/>
       <c r="Z29" s="5"/>
-      <c r="AA29" s="57"/>
+      <c r="AA29" s="121"/>
       <c r="AB29" s="5"/>
-      <c r="AC29" s="57"/>
+      <c r="AC29" s="121"/>
       <c r="AD29" s="5"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="57"/>
+      <c r="G30" s="121"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="57"/>
+      <c r="I30" s="121"/>
       <c r="J30" s="5"/>
       <c r="U30" s="5"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="57"/>
+      <c r="V30" s="121"/>
+      <c r="W30" s="121"/>
+      <c r="X30" s="121"/>
+      <c r="Y30" s="121"/>
       <c r="Z30" s="5"/>
-      <c r="AA30" s="57"/>
+      <c r="AA30" s="121"/>
       <c r="AB30" s="5"/>
-      <c r="AC30" s="57"/>
+      <c r="AC30" s="121"/>
       <c r="AD30" s="5"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="57"/>
+      <c r="G31" s="121"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="57"/>
+      <c r="I31" s="121"/>
       <c r="J31" s="5"/>
       <c r="U31" s="5"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="57"/>
+      <c r="V31" s="121"/>
+      <c r="W31" s="121"/>
+      <c r="X31" s="121"/>
+      <c r="Y31" s="121"/>
       <c r="Z31" s="5"/>
-      <c r="AA31" s="57"/>
+      <c r="AA31" s="121"/>
       <c r="AB31" s="5"/>
-      <c r="AC31" s="57"/>
+      <c r="AC31" s="121"/>
       <c r="AD31" s="5"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="57"/>
+      <c r="G32" s="121"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="57"/>
+      <c r="I32" s="121"/>
       <c r="J32" s="5"/>
       <c r="U32" s="5"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="57"/>
-      <c r="X32" s="57"/>
-      <c r="Y32" s="57"/>
+      <c r="V32" s="121"/>
+      <c r="W32" s="121"/>
+      <c r="X32" s="121"/>
+      <c r="Y32" s="121"/>
       <c r="Z32" s="5"/>
-      <c r="AA32" s="57"/>
+      <c r="AA32" s="121"/>
       <c r="AB32" s="5"/>
-      <c r="AC32" s="57"/>
+      <c r="AC32" s="121"/>
       <c r="AD32" s="5"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="57"/>
+      <c r="G33" s="121"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="57"/>
+      <c r="I33" s="121"/>
       <c r="J33" s="5"/>
       <c r="U33" s="5"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="57"/>
-      <c r="X33" s="57"/>
-      <c r="Y33" s="57"/>
+      <c r="V33" s="121"/>
+      <c r="W33" s="121"/>
+      <c r="X33" s="121"/>
+      <c r="Y33" s="121"/>
       <c r="Z33" s="5"/>
-      <c r="AA33" s="57"/>
+      <c r="AA33" s="121"/>
       <c r="AB33" s="5"/>
-      <c r="AC33" s="57"/>
+      <c r="AC33" s="121"/>
       <c r="AD33" s="5"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
@@ -3435,318 +4187,318 @@
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
       <c r="J36" s="5"/>
       <c r="U36" s="5"/>
-      <c r="V36" s="53" t="s">
+      <c r="V36" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="53"/>
-      <c r="AC36" s="53"/>
+      <c r="W36" s="117"/>
+      <c r="X36" s="117"/>
+      <c r="Y36" s="117"/>
+      <c r="Z36" s="117"/>
+      <c r="AA36" s="117"/>
+      <c r="AB36" s="117"/>
+      <c r="AC36" s="117"/>
       <c r="AD36" s="5"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="117"/>
       <c r="J37" s="5"/>
       <c r="U37" s="5"/>
-      <c r="V37" s="53"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="53"/>
-      <c r="AB37" s="53"/>
-      <c r="AC37" s="53"/>
+      <c r="V37" s="117"/>
+      <c r="W37" s="117"/>
+      <c r="X37" s="117"/>
+      <c r="Y37" s="117"/>
+      <c r="Z37" s="117"/>
+      <c r="AA37" s="117"/>
+      <c r="AB37" s="117"/>
+      <c r="AC37" s="117"/>
       <c r="AD37" s="5"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
       <c r="J38" s="5"/>
       <c r="U38" s="5"/>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
-      <c r="AA38" s="53"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="53"/>
+      <c r="V38" s="117"/>
+      <c r="W38" s="117"/>
+      <c r="X38" s="117"/>
+      <c r="Y38" s="117"/>
+      <c r="Z38" s="117"/>
+      <c r="AA38" s="117"/>
+      <c r="AB38" s="117"/>
+      <c r="AC38" s="117"/>
       <c r="AD38" s="5"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
       <c r="J39" s="5"/>
       <c r="U39" s="5"/>
-      <c r="V39" s="53"/>
-      <c r="W39" s="53"/>
-      <c r="X39" s="53"/>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
+      <c r="V39" s="117"/>
+      <c r="W39" s="117"/>
+      <c r="X39" s="117"/>
+      <c r="Y39" s="117"/>
+      <c r="Z39" s="117"/>
+      <c r="AA39" s="117"/>
+      <c r="AB39" s="117"/>
+      <c r="AC39" s="117"/>
       <c r="AD39" s="5"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="117"/>
+      <c r="I40" s="117"/>
       <c r="J40" s="5"/>
       <c r="U40" s="5"/>
-      <c r="V40" s="53"/>
-      <c r="W40" s="53"/>
-      <c r="X40" s="53"/>
-      <c r="Y40" s="53"/>
-      <c r="Z40" s="53"/>
-      <c r="AA40" s="53"/>
-      <c r="AB40" s="53"/>
-      <c r="AC40" s="53"/>
+      <c r="V40" s="117"/>
+      <c r="W40" s="117"/>
+      <c r="X40" s="117"/>
+      <c r="Y40" s="117"/>
+      <c r="Z40" s="117"/>
+      <c r="AA40" s="117"/>
+      <c r="AB40" s="117"/>
+      <c r="AC40" s="117"/>
       <c r="AD40" s="5"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="117"/>
       <c r="J41" s="5"/>
       <c r="U41" s="5"/>
-      <c r="V41" s="53"/>
-      <c r="W41" s="53"/>
-      <c r="X41" s="53"/>
-      <c r="Y41" s="53"/>
-      <c r="Z41" s="53"/>
-      <c r="AA41" s="53"/>
-      <c r="AB41" s="53"/>
-      <c r="AC41" s="53"/>
+      <c r="V41" s="117"/>
+      <c r="W41" s="117"/>
+      <c r="X41" s="117"/>
+      <c r="Y41" s="117"/>
+      <c r="Z41" s="117"/>
+      <c r="AA41" s="117"/>
+      <c r="AB41" s="117"/>
+      <c r="AC41" s="117"/>
       <c r="AD41" s="5"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="117"/>
       <c r="J42" s="5"/>
       <c r="U42" s="5"/>
-      <c r="V42" s="53"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="53"/>
-      <c r="AB42" s="53"/>
-      <c r="AC42" s="53"/>
+      <c r="V42" s="117"/>
+      <c r="W42" s="117"/>
+      <c r="X42" s="117"/>
+      <c r="Y42" s="117"/>
+      <c r="Z42" s="117"/>
+      <c r="AA42" s="117"/>
+      <c r="AB42" s="117"/>
+      <c r="AC42" s="117"/>
       <c r="AD42" s="5"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="117"/>
       <c r="J43" s="5"/>
       <c r="U43" s="5"/>
-      <c r="V43" s="53"/>
-      <c r="W43" s="53"/>
-      <c r="X43" s="53"/>
-      <c r="Y43" s="53"/>
-      <c r="Z43" s="53"/>
-      <c r="AA43" s="53"/>
-      <c r="AB43" s="53"/>
-      <c r="AC43" s="53"/>
+      <c r="V43" s="117"/>
+      <c r="W43" s="117"/>
+      <c r="X43" s="117"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="117"/>
+      <c r="AB43" s="117"/>
+      <c r="AC43" s="117"/>
       <c r="AD43" s="5"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
       <c r="J44" s="5"/>
       <c r="U44" s="5"/>
-      <c r="V44" s="53"/>
-      <c r="W44" s="53"/>
-      <c r="X44" s="53"/>
-      <c r="Y44" s="53"/>
-      <c r="Z44" s="53"/>
-      <c r="AA44" s="53"/>
-      <c r="AB44" s="53"/>
-      <c r="AC44" s="53"/>
+      <c r="V44" s="117"/>
+      <c r="W44" s="117"/>
+      <c r="X44" s="117"/>
+      <c r="Y44" s="117"/>
+      <c r="Z44" s="117"/>
+      <c r="AA44" s="117"/>
+      <c r="AB44" s="117"/>
+      <c r="AC44" s="117"/>
       <c r="AD44" s="5"/>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="117"/>
       <c r="J45" s="5"/>
       <c r="U45" s="5"/>
-      <c r="V45" s="53"/>
-      <c r="W45" s="53"/>
-      <c r="X45" s="53"/>
-      <c r="Y45" s="53"/>
-      <c r="Z45" s="53"/>
-      <c r="AA45" s="53"/>
-      <c r="AB45" s="53"/>
-      <c r="AC45" s="53"/>
+      <c r="V45" s="117"/>
+      <c r="W45" s="117"/>
+      <c r="X45" s="117"/>
+      <c r="Y45" s="117"/>
+      <c r="Z45" s="117"/>
+      <c r="AA45" s="117"/>
+      <c r="AB45" s="117"/>
+      <c r="AC45" s="117"/>
       <c r="AD45" s="5"/>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="117"/>
       <c r="J46" s="5"/>
       <c r="U46" s="5"/>
-      <c r="V46" s="53"/>
-      <c r="W46" s="53"/>
-      <c r="X46" s="53"/>
-      <c r="Y46" s="53"/>
-      <c r="Z46" s="53"/>
-      <c r="AA46" s="53"/>
-      <c r="AB46" s="53"/>
-      <c r="AC46" s="53"/>
+      <c r="V46" s="117"/>
+      <c r="W46" s="117"/>
+      <c r="X46" s="117"/>
+      <c r="Y46" s="117"/>
+      <c r="Z46" s="117"/>
+      <c r="AA46" s="117"/>
+      <c r="AB46" s="117"/>
+      <c r="AC46" s="117"/>
       <c r="AD46" s="5"/>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="117"/>
       <c r="J47" s="5"/>
       <c r="U47" s="5"/>
-      <c r="V47" s="53"/>
-      <c r="W47" s="53"/>
-      <c r="X47" s="53"/>
-      <c r="Y47" s="53"/>
-      <c r="Z47" s="53"/>
-      <c r="AA47" s="53"/>
-      <c r="AB47" s="53"/>
-      <c r="AC47" s="53"/>
+      <c r="V47" s="117"/>
+      <c r="W47" s="117"/>
+      <c r="X47" s="117"/>
+      <c r="Y47" s="117"/>
+      <c r="Z47" s="117"/>
+      <c r="AA47" s="117"/>
+      <c r="AB47" s="117"/>
+      <c r="AC47" s="117"/>
       <c r="AD47" s="5"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="117"/>
       <c r="J48" s="5"/>
       <c r="U48" s="5"/>
-      <c r="V48" s="53"/>
-      <c r="W48" s="53"/>
-      <c r="X48" s="53"/>
-      <c r="Y48" s="53"/>
-      <c r="Z48" s="53"/>
-      <c r="AA48" s="53"/>
-      <c r="AB48" s="53"/>
-      <c r="AC48" s="53"/>
+      <c r="V48" s="117"/>
+      <c r="W48" s="117"/>
+      <c r="X48" s="117"/>
+      <c r="Y48" s="117"/>
+      <c r="Z48" s="117"/>
+      <c r="AA48" s="117"/>
+      <c r="AB48" s="117"/>
+      <c r="AC48" s="117"/>
       <c r="AD48" s="5"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="56"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="119"/>
+      <c r="H49" s="119"/>
+      <c r="I49" s="120"/>
       <c r="J49" s="5"/>
       <c r="U49" s="5"/>
-      <c r="V49" s="54" t="s">
+      <c r="V49" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="W49" s="55"/>
-      <c r="X49" s="55"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="54"/>
-      <c r="AA49" s="55"/>
-      <c r="AB49" s="55"/>
-      <c r="AC49" s="56"/>
+      <c r="W49" s="119"/>
+      <c r="X49" s="119"/>
+      <c r="Y49" s="120"/>
+      <c r="Z49" s="118"/>
+      <c r="AA49" s="119"/>
+      <c r="AB49" s="119"/>
+      <c r="AC49" s="120"/>
       <c r="AD49" s="5"/>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
@@ -3877,7 +4629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3752BF7-46E9-40E2-8DC0-56F4D4E51AEF}">
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -3904,37 +4656,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="65" t="s">
+      <c r="K1" s="130"/>
+      <c r="L1" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="65" t="s">
+      <c r="M1" s="130"/>
+      <c r="N1" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="66"/>
-      <c r="P1" s="65" t="s">
+      <c r="O1" s="130"/>
+      <c r="P1" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="65" t="s">
+      <c r="Q1" s="130"/>
+      <c r="R1" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="66"/>
-      <c r="T1" s="65" t="s">
+      <c r="S1" s="130"/>
+      <c r="T1" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="66"/>
+      <c r="U1" s="130"/>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4015,154 +4767,154 @@
         <f t="shared" ref="A5:A68" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="F5" s="67" t="s">
+      <c r="D5" s="131"/>
+      <c r="F5" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="M5" s="67" t="s">
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="M5" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="131"/>
+      <c r="R5" s="131"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="131"/>
+      <c r="Q7" s="131"/>
+      <c r="R7" s="131"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="M8" s="131"/>
+      <c r="N8" s="131"/>
+      <c r="O8" s="131"/>
+      <c r="P8" s="131"/>
+      <c r="Q8" s="131"/>
+      <c r="R8" s="131"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="M9" s="131"/>
+      <c r="N9" s="131"/>
+      <c r="O9" s="131"/>
+      <c r="P9" s="131"/>
+      <c r="Q9" s="131"/>
+      <c r="R9" s="131"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="131"/>
+      <c r="P10" s="131"/>
+      <c r="Q10" s="131"/>
+      <c r="R10" s="131"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="131"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="131"/>
+      <c r="P12" s="131"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="131"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="131"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -4181,191 +4933,191 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="H16" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="N16" s="67" t="s">
+      <c r="D16" s="131"/>
+      <c r="H16" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="N16" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="131"/>
+      <c r="S16" s="131"/>
+      <c r="T16" s="131"/>
+      <c r="U16" s="131"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
+      <c r="P17" s="131"/>
+      <c r="Q17" s="131"/>
+      <c r="R17" s="131"/>
+      <c r="S17" s="131"/>
+      <c r="T17" s="131"/>
+      <c r="U17" s="131"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="131"/>
+      <c r="N18" s="131"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="131"/>
+      <c r="Q18" s="131"/>
+      <c r="R18" s="131"/>
+      <c r="S18" s="131"/>
+      <c r="T18" s="131"/>
+      <c r="U18" s="131"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="131"/>
+      <c r="N19" s="131"/>
+      <c r="O19" s="131"/>
+      <c r="P19" s="131"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="131"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="131"/>
+      <c r="U19" s="131"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="67"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="131"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="131"/>
+      <c r="P20" s="131"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="131"/>
+      <c r="S20" s="131"/>
+      <c r="T20" s="131"/>
+      <c r="U20" s="131"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="131"/>
+      <c r="N21" s="131"/>
+      <c r="O21" s="131"/>
+      <c r="P21" s="131"/>
+      <c r="Q21" s="131"/>
+      <c r="R21" s="131"/>
+      <c r="S21" s="131"/>
+      <c r="T21" s="131"/>
+      <c r="U21" s="131"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="131"/>
+      <c r="P22" s="131"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="131"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="131"/>
+      <c r="U22" s="131"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="67"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="131"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="131"/>
+      <c r="P23" s="131"/>
+      <c r="Q23" s="131"/>
+      <c r="R23" s="131"/>
+      <c r="S23" s="131"/>
+      <c r="T23" s="131"/>
+      <c r="U23" s="131"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="131"/>
+      <c r="P24" s="131"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="131"/>
+      <c r="S24" s="131"/>
+      <c r="T24" s="131"/>
+      <c r="U24" s="131"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67"/>
+      <c r="N25" s="131"/>
+      <c r="O25" s="131"/>
+      <c r="P25" s="131"/>
+      <c r="Q25" s="131"/>
+      <c r="R25" s="131"/>
+      <c r="S25" s="131"/>
+      <c r="T25" s="131"/>
+      <c r="U25" s="131"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -4378,114 +5130,114 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="131"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="131"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="131"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="131"/>
+      <c r="L31" s="131"/>
+      <c r="M31" s="131"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="131"/>
+      <c r="L32" s="131"/>
+      <c r="M32" s="131"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="131"/>
+      <c r="L33" s="131"/>
+      <c r="M33" s="131"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -4504,28 +5256,28 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="64"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="128"/>
+      <c r="M36" s="128"/>
+      <c r="N36" s="128"/>
+      <c r="O36" s="128"/>
+      <c r="P36" s="128"/>
+      <c r="Q36" s="128"/>
+      <c r="R36" s="128"/>
+      <c r="S36" s="128"/>
+      <c r="T36" s="128"/>
+      <c r="U36" s="128"/>
+      <c r="V36" s="128"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -5008,28 +5760,28 @@
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C101" s="64" t="s">
+      <c r="C101" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="D101" s="64"/>
-      <c r="E101" s="64"/>
-      <c r="F101" s="64"/>
-      <c r="G101" s="64"/>
-      <c r="H101" s="64"/>
-      <c r="I101" s="64"/>
-      <c r="J101" s="64"/>
-      <c r="K101" s="64"/>
-      <c r="L101" s="64"/>
-      <c r="M101" s="64"/>
-      <c r="N101" s="64"/>
-      <c r="O101" s="64"/>
-      <c r="P101" s="64"/>
-      <c r="Q101" s="64"/>
-      <c r="R101" s="64"/>
-      <c r="S101" s="64"/>
-      <c r="T101" s="64"/>
-      <c r="U101" s="64"/>
-      <c r="V101" s="64"/>
+      <c r="D101" s="128"/>
+      <c r="E101" s="128"/>
+      <c r="F101" s="128"/>
+      <c r="G101" s="128"/>
+      <c r="H101" s="128"/>
+      <c r="I101" s="128"/>
+      <c r="J101" s="128"/>
+      <c r="K101" s="128"/>
+      <c r="L101" s="128"/>
+      <c r="M101" s="128"/>
+      <c r="N101" s="128"/>
+      <c r="O101" s="128"/>
+      <c r="P101" s="128"/>
+      <c r="Q101" s="128"/>
+      <c r="R101" s="128"/>
+      <c r="S101" s="128"/>
+      <c r="T101" s="128"/>
+      <c r="U101" s="128"/>
+      <c r="V101" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5071,28 +5823,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66" t="s">
+      <c r="J1" s="130"/>
+      <c r="K1" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
       <c r="T1" t="s">
         <v>36</v>
       </c>
@@ -5189,10 +5941,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="T6" s="68" t="s">
+      <c r="T6" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="U6" s="68"/>
+      <c r="U6" s="132"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -5202,122 +5954,122 @@
         <v>5</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
+      <c r="T7" s="132"/>
+      <c r="U7" s="132"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
+      <c r="T8" s="132"/>
+      <c r="U8" s="132"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="K9" s="69" t="s">
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="K9" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="133"/>
+      <c r="R9" s="133"/>
+      <c r="T9" s="132"/>
+      <c r="U9" s="132"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="68"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="133"/>
+      <c r="T10" s="132"/>
+      <c r="U10" s="132"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="T11" s="132"/>
+      <c r="U11" s="132"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="133"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="133"/>
+      <c r="R12" s="133"/>
+      <c r="T12" s="132"/>
+      <c r="U12" s="132"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="133"/>
+      <c r="O13" s="133"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="133"/>
+      <c r="R13" s="133"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="133"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="133"/>
+      <c r="R14" s="133"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="133"/>
+      <c r="N15" s="133"/>
+      <c r="O15" s="133"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="133"/>
+      <c r="R15" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5334,1051 +6086,1358 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845CC6D5-A6D7-4B7E-AD14-0A0E7C773513}">
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q50" sqref="Q50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
     <col min="9" max="9" width="26.85546875" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.5703125" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" customWidth="1"/>
-    <col min="15" max="15" width="26.85546875" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.28515625" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.140625" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" customWidth="1"/>
     <col min="20" max="20" width="19.5703125" customWidth="1"/>
     <col min="21" max="21" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D4" s="16" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D2" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F6" s="16" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H7" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="H9" s="40"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="18"/>
+      <c r="I18" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="81"/>
+      <c r="K18" s="82"/>
+      <c r="M18" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="18"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="I19" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" s="83" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="N19" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="O19" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="P19" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q19" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="43"/>
+      <c r="B20" s="24">
+        <v>1</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="19"/>
+      <c r="I20" s="69">
+        <v>1</v>
+      </c>
+      <c r="J20" s="78">
+        <v>1</v>
+      </c>
+      <c r="K20" s="70">
+        <v>1</v>
+      </c>
+      <c r="M20" s="24">
+        <v>1</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="O20" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="19"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="24">
+        <v>2</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="19"/>
+      <c r="I21" s="69">
+        <v>2</v>
+      </c>
+      <c r="J21" s="78">
+        <v>1</v>
+      </c>
+      <c r="K21" s="70">
+        <v>1</v>
+      </c>
+      <c r="M21" s="24">
+        <v>2</v>
+      </c>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="19"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="24">
+        <v>3</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="19"/>
+      <c r="I22" s="69">
+        <v>3</v>
+      </c>
+      <c r="J22" s="78">
+        <v>2</v>
+      </c>
+      <c r="K22" s="70">
+        <v>2</v>
+      </c>
+      <c r="M22" s="24">
+        <v>3</v>
+      </c>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="19"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="27">
+        <v>4</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="20"/>
+      <c r="I23" s="71">
+        <v>4</v>
+      </c>
+      <c r="J23" s="79">
+        <v>3</v>
+      </c>
+      <c r="K23" s="72"/>
+      <c r="M23" s="27">
+        <v>4</v>
+      </c>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="20"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="Q26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="E27" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="18"/>
+      <c r="L27" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="32"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="134" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L28" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="M28" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="N28" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="O28" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="P28" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q28" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="24">
+        <v>1</v>
+      </c>
+      <c r="C29" s="25">
+        <v>1</v>
+      </c>
+      <c r="E29" s="24">
+        <v>1</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="19"/>
+      <c r="L29" s="24">
+        <v>1</v>
+      </c>
+      <c r="M29" s="26">
+        <v>1</v>
+      </c>
+      <c r="N29" s="26">
+        <v>1</v>
+      </c>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="24">
+        <v>1</v>
+      </c>
+      <c r="C30" s="25">
+        <v>2</v>
+      </c>
+      <c r="E30" s="24">
+        <v>2</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="26"/>
+      <c r="J30" s="19"/>
+      <c r="L30" s="24">
+        <v>2</v>
+      </c>
+      <c r="M30" s="26">
+        <v>1</v>
+      </c>
+      <c r="N30" s="26">
+        <v>2</v>
+      </c>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="24">
+        <v>1</v>
+      </c>
+      <c r="C31" s="25">
+        <v>3</v>
+      </c>
+      <c r="E31" s="24">
+        <v>3</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" s="26"/>
+      <c r="J31" s="19"/>
+      <c r="L31" s="24">
+        <v>3</v>
+      </c>
+      <c r="M31" s="26">
+        <v>1</v>
+      </c>
+      <c r="N31" s="26">
+        <v>3</v>
+      </c>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="27">
+        <v>2</v>
+      </c>
+      <c r="C32" s="28">
+        <v>1</v>
+      </c>
+      <c r="E32" s="27">
+        <v>4</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="29"/>
+      <c r="J32" s="20"/>
+      <c r="L32" s="27">
+        <v>4</v>
+      </c>
+      <c r="M32" s="29">
+        <v>2</v>
+      </c>
+      <c r="N32" s="29">
+        <v>1</v>
+      </c>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="28">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="P34" s="39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H35" t="s">
+        <v>104</v>
+      </c>
+      <c r="M35" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="P35" s="51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="E36" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="74"/>
+      <c r="H36" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="I36" s="66"/>
+      <c r="K36" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="32"/>
+    </row>
+    <row r="37" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="L37" s="35" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="M37" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="N37" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="O37" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P37" s="38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="24">
+        <v>1</v>
+      </c>
+      <c r="C38" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="18"/>
-      <c r="I13" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="38"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+      <c r="E38" s="69">
+        <v>1</v>
+      </c>
+      <c r="F38" s="70">
+        <v>1</v>
+      </c>
+      <c r="H38" s="69">
+        <v>1</v>
+      </c>
+      <c r="I38" s="70">
+        <v>1</v>
+      </c>
+      <c r="K38" s="24">
+        <v>1</v>
+      </c>
+      <c r="L38" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="N38" s="26">
+        <v>88</v>
+      </c>
+      <c r="O38" s="26"/>
+      <c r="P38" s="25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="24">
+        <v>2</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="69">
+        <v>2</v>
+      </c>
+      <c r="F39" s="70">
+        <v>2</v>
+      </c>
+      <c r="H39" s="69">
+        <v>2</v>
+      </c>
+      <c r="I39" s="70">
+        <v>1</v>
+      </c>
+      <c r="K39" s="24">
+        <v>2</v>
+      </c>
+      <c r="L39" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="M39" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="N39" s="26">
+        <v>32</v>
+      </c>
+      <c r="O39" s="26"/>
+      <c r="P39" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="24">
+        <v>3</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="69">
+        <v>3</v>
+      </c>
+      <c r="F40" s="70">
+        <v>3</v>
+      </c>
+      <c r="H40" s="69">
+        <v>3</v>
+      </c>
+      <c r="I40" s="70">
+        <v>1</v>
+      </c>
+      <c r="K40" s="24">
+        <v>3</v>
+      </c>
+      <c r="L40" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="M40" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="N40" s="26">
+        <v>100</v>
+      </c>
+      <c r="O40" s="26"/>
+      <c r="P40" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="41" t="s">
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" s="27">
+        <v>4</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="71">
+        <v>4</v>
+      </c>
+      <c r="F41" s="72">
+        <v>1</v>
+      </c>
+      <c r="H41" s="71">
+        <v>4</v>
+      </c>
+      <c r="I41" s="72">
+        <v>1</v>
+      </c>
+      <c r="K41" s="27">
+        <v>4</v>
+      </c>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="28"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="E42" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G43" s="15"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="49"/>
+      <c r="K44" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="O44" s="39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="32"/>
+      <c r="G45" s="15"/>
+      <c r="I45" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="J45" s="50"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="P45" s="84"/>
+      <c r="Q45" s="66"/>
+    </row>
+    <row r="46" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46" s="15"/>
+      <c r="I46" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="J46" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="K46" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="L46" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="M46" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="N46" s="15"/>
+      <c r="O46" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="P46" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q46" s="87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="24">
+        <v>1</v>
+      </c>
+      <c r="C47" s="26">
+        <v>1</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="25">
+        <v>2</v>
+      </c>
+      <c r="G47" s="15"/>
+      <c r="I47" s="24">
+        <v>1</v>
+      </c>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26">
+        <v>2</v>
+      </c>
+      <c r="L47" s="26"/>
+      <c r="M47" s="25">
+        <v>3</v>
+      </c>
+      <c r="N47" s="15"/>
+      <c r="O47" s="88"/>
+      <c r="P47" s="89"/>
+      <c r="Q47" s="90"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="24">
+        <v>2</v>
+      </c>
+      <c r="C48" s="26">
+        <v>1</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="25">
+        <v>4</v>
+      </c>
+      <c r="G48" s="15"/>
+      <c r="I48" s="24">
+        <v>2</v>
+      </c>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26">
+        <v>1</v>
+      </c>
+      <c r="L48" s="26"/>
+      <c r="M48" s="25">
+        <v>1</v>
+      </c>
+      <c r="N48" s="15"/>
+      <c r="O48" s="88"/>
+      <c r="P48" s="89"/>
+      <c r="Q48" s="90"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" s="24">
+        <v>3</v>
+      </c>
+      <c r="C49" s="26">
+        <v>2</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="25">
+        <v>1</v>
+      </c>
+      <c r="G49" s="15"/>
+      <c r="I49" s="24">
+        <v>3</v>
+      </c>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26">
+        <v>1</v>
+      </c>
+      <c r="L49" s="26"/>
+      <c r="M49" s="25">
+        <v>2</v>
+      </c>
+      <c r="O49" s="88"/>
+      <c r="P49" s="89"/>
+      <c r="Q49" s="90"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" s="27">
+        <v>4</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="28"/>
+      <c r="G50" s="15"/>
+      <c r="I50" s="27">
+        <v>4</v>
+      </c>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="28"/>
+      <c r="O50" s="91"/>
+      <c r="P50" s="92"/>
+      <c r="Q50" s="93"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>174</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="I51" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F52" s="15"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="41"/>
+      <c r="I54" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="N54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="18"/>
+    </row>
+    <row r="56" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="24">
+        <v>1</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="25"/>
+      <c r="I56" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="J56" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="K56" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L56" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="M56" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="N56" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="O56" s="38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B57" s="24">
+        <v>2</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="25"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="25"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B58" s="24">
+        <v>3</v>
+      </c>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="19"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="25"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B59" s="27">
+        <v>4</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="20"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="25"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D60" s="30"/>
+      <c r="E60" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="I60" s="27"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="28"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J61" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J63" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="54"/>
+      <c r="J64" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="18"/>
+    </row>
+    <row r="65" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="E65" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="J65" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="K65" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="L65" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="M65" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="N65" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="O65" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="P65" s="38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" s="59">
+        <v>7</v>
+      </c>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="61"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="26"/>
+      <c r="P66" s="25"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" s="59">
+        <v>8</v>
+      </c>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="61"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="25"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" s="59">
+        <v>9</v>
+      </c>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="61"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="25"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69" s="62">
+        <v>10</v>
+      </c>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="64"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="28"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E72" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="F72" s="95"/>
+      <c r="G72" s="96"/>
+      <c r="I72" s="106" t="s">
+        <v>199</v>
+      </c>
+      <c r="J72" s="107"/>
+      <c r="K72" s="108"/>
+    </row>
+    <row r="73" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="F73" s="98" t="s">
+        <v>200</v>
+      </c>
+      <c r="G73" s="99" t="s">
+        <v>193</v>
+      </c>
+      <c r="I73" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="K14" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="M14" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="N14" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="30">
-        <v>1</v>
-      </c>
-      <c r="C15" s="32">
-        <v>1</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="21"/>
-      <c r="I15" s="30">
-        <v>1</v>
-      </c>
-      <c r="J15" s="32">
-        <v>1</v>
-      </c>
-      <c r="K15" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="31"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="30">
-        <v>2</v>
-      </c>
-      <c r="C16" s="32">
-        <v>2</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="21"/>
-      <c r="I16" s="30">
-        <v>2</v>
-      </c>
-      <c r="J16" s="32">
-        <v>3</v>
-      </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="31"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="30">
-        <v>3</v>
-      </c>
-      <c r="C17" s="32">
-        <v>3</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="21"/>
-      <c r="I17" s="30">
-        <v>3</v>
-      </c>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="31"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="33">
-        <v>4</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="23"/>
-      <c r="I18" s="33">
-        <v>4</v>
-      </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="34"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="Q21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="18"/>
-      <c r="F22" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="38"/>
-      <c r="N22" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="38"/>
-    </row>
-    <row r="23" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="J23" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="K23" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="N23" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="O23" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="P23" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q23" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="20"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="21"/>
-      <c r="F24" s="30">
-        <v>1</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="32">
-        <v>1</v>
-      </c>
-      <c r="L24" s="31">
-        <v>1</v>
-      </c>
-      <c r="N24" s="30">
-        <v>1</v>
-      </c>
-      <c r="O24" s="32">
-        <v>1</v>
-      </c>
-      <c r="P24" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="31">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="20"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="21"/>
-      <c r="F25" s="30">
-        <v>2</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="32">
-        <v>1</v>
-      </c>
-      <c r="L25" s="31">
-        <v>1</v>
-      </c>
-      <c r="N25" s="30">
-        <v>2</v>
-      </c>
-      <c r="O25" s="32">
-        <v>1</v>
-      </c>
-      <c r="P25" s="32">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="31">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="20"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="21"/>
-      <c r="F26" s="30">
-        <v>3</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="32">
-        <v>2</v>
-      </c>
-      <c r="L26" s="31"/>
-      <c r="N26" s="30">
-        <v>3</v>
-      </c>
-      <c r="O26" s="32">
-        <v>1</v>
-      </c>
-      <c r="P26" s="32">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="31">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="22"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="23"/>
-      <c r="F27" s="33">
-        <v>4</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="35">
-        <v>3</v>
-      </c>
-      <c r="L27" s="34">
-        <v>2</v>
-      </c>
-      <c r="N27" s="33">
-        <v>4</v>
-      </c>
-      <c r="O27" s="35">
-        <v>2</v>
-      </c>
-      <c r="P27" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="34">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="J30" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q30" s="45" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="38"/>
-      <c r="F31" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="G31" s="39"/>
-      <c r="H31" s="38"/>
-      <c r="J31" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="K31" s="18"/>
-      <c r="N31" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="38"/>
-    </row>
-    <row r="32" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="G32" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="J32" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="K32" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="N32" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="O32" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="P32" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q32" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="R32" s="44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="30">
-        <v>1</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" s="30">
-        <v>1</v>
-      </c>
-      <c r="G33" s="32">
-        <v>1</v>
-      </c>
-      <c r="H33" s="31">
-        <v>2</v>
-      </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
-      <c r="N33" s="30">
-        <v>1</v>
-      </c>
-      <c r="O33" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="P33" s="32">
-        <v>88</v>
-      </c>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="30">
-        <v>2</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="30">
-        <v>2</v>
-      </c>
-      <c r="G34" s="32">
-        <v>2</v>
-      </c>
-      <c r="H34" s="31">
-        <v>2</v>
-      </c>
-      <c r="J34" s="20"/>
-      <c r="K34" s="21"/>
-      <c r="N34" s="30">
-        <v>2</v>
-      </c>
-      <c r="O34" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="P34" s="32">
-        <v>32</v>
-      </c>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="30">
-        <v>3</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" s="30">
-        <v>3</v>
-      </c>
-      <c r="G35" s="32">
-        <v>3</v>
-      </c>
-      <c r="H35" s="31">
-        <v>2</v>
-      </c>
-      <c r="J35" s="20"/>
-      <c r="K35" s="21"/>
-      <c r="N35" s="30">
-        <v>3</v>
-      </c>
-      <c r="O35" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="P35" s="32">
-        <v>100</v>
-      </c>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="33">
-        <v>4</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36" s="33">
-        <v>4</v>
-      </c>
-      <c r="G36" s="35">
-        <v>4</v>
-      </c>
-      <c r="H36" s="34">
-        <v>1</v>
-      </c>
-      <c r="J36" s="22"/>
-      <c r="K36" s="23"/>
-      <c r="N36" s="33">
-        <v>4</v>
-      </c>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="34"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="G37" s="2"/>
-      <c r="J37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G38" s="15"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C39" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="P39" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="38"/>
-      <c r="F40" s="15"/>
-      <c r="I40" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="J40" s="39"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="15"/>
-      <c r="N40" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="O40" s="24"/>
-      <c r="P40" s="18"/>
-    </row>
-    <row r="41" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" s="15"/>
-      <c r="I41" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="J41" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="K41" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="L41" s="15"/>
-      <c r="N41" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="O41" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="P41" s="52" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="30">
-        <v>1</v>
-      </c>
-      <c r="C42" s="32">
-        <v>1</v>
-      </c>
-      <c r="D42" s="31">
-        <v>2</v>
-      </c>
-      <c r="F42" s="15"/>
-      <c r="I42" s="30">
-        <v>1</v>
-      </c>
-      <c r="J42" s="32">
-        <v>2</v>
-      </c>
-      <c r="K42" s="31">
-        <v>3</v>
-      </c>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="21"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="30">
-        <v>2</v>
-      </c>
-      <c r="C43" s="32">
-        <v>1</v>
-      </c>
-      <c r="D43" s="31">
-        <v>4</v>
-      </c>
-      <c r="F43" s="15"/>
-      <c r="I43" s="30">
-        <v>2</v>
-      </c>
-      <c r="J43" s="32">
-        <v>1</v>
-      </c>
-      <c r="K43" s="31">
-        <v>1</v>
-      </c>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="21"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="30">
-        <v>3</v>
-      </c>
-      <c r="C44" s="32">
-        <v>2</v>
-      </c>
-      <c r="D44" s="31">
-        <v>1</v>
-      </c>
-      <c r="F44" s="15"/>
-      <c r="I44" s="30">
-        <v>3</v>
-      </c>
-      <c r="J44" s="32">
-        <v>1</v>
-      </c>
-      <c r="K44" s="31">
-        <v>2</v>
-      </c>
-      <c r="N44" s="20"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="21"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="33">
-        <v>4</v>
-      </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="34"/>
-      <c r="F45" s="15"/>
-      <c r="I45" s="33">
-        <v>4</v>
-      </c>
-      <c r="J45" s="35"/>
-      <c r="K45" s="34"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="23"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="F47" s="15"/>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="18"/>
-      <c r="I49" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="N49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="I50" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="18"/>
-    </row>
-    <row r="51" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="30">
-        <v>1</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="21"/>
-      <c r="I51" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="J51" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="K51" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="L51" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="M51" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="N51" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="O51" s="44" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="30">
-        <v>2</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="21"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="31"/>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="30">
-        <v>3</v>
-      </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="21"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="31"/>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="33">
-        <v>4</v>
-      </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="23"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="31"/>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E55" s="36"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="34"/>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J56" s="48" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J58" s="48" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J59" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="18"/>
-    </row>
-    <row r="60" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J60" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="K60" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="L60" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="M60" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="N60" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="O60" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="P60" s="44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J61" s="30"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="32"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="31"/>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J62" s="30"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="31"/>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J63" s="30"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="31"/>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J64" s="33"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="34"/>
+      <c r="J73" s="109" t="s">
+        <v>201</v>
+      </c>
+      <c r="K73" s="110" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E74" s="100"/>
+      <c r="F74" s="101"/>
+      <c r="G74" s="102"/>
+      <c r="I74" s="111"/>
+      <c r="J74" s="112"/>
+      <c r="K74" s="113"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E75" s="100"/>
+      <c r="F75" s="101"/>
+      <c r="G75" s="102"/>
+      <c r="I75" s="111"/>
+      <c r="J75" s="112"/>
+      <c r="K75" s="113"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E76" s="100"/>
+      <c r="F76" s="101"/>
+      <c r="G76" s="102"/>
+      <c r="I76" s="111"/>
+      <c r="J76" s="112"/>
+      <c r="K76" s="113"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E77" s="103"/>
+      <c r="F77" s="104"/>
+      <c r="G77" s="105"/>
+      <c r="I77" s="114"/>
+      <c r="J77" s="115"/>
+      <c r="K77" s="116"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F78" s="39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F79" s="39" t="s">
+        <v>198</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
